--- a/Chapter01/Create.xlsx
+++ b/Chapter01/Create.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curt\Desktop\Exercise Files\Chapter01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scarstruck/Git/excel_pivot_tables/Chapter01/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D4A9FD-6964-1542-A76E-4E041A2C7E3B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24340" windowHeight="13600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
   <si>
     <t>Department</t>
   </si>
@@ -49,11 +54,23 @@
   <si>
     <t>Work</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Sales</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,10 +108,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -132,13 +154,281 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Shashank Sharad Jain" refreshedDate="43383.054120138891" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20" xr:uid="{36DEAAF0-47C5-654B-9B6D-B5EBEF369037}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table2"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Department" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Balance"/>
+        <s v="Dance"/>
+        <s v="Play"/>
+        <s v="Sport"/>
+        <s v="Work"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Quarter" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="4">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sales" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="15770" maxValue="70127" count="20">
+        <n v="51992"/>
+        <n v="45427"/>
+        <n v="38092"/>
+        <n v="33519"/>
+        <n v="70127"/>
+        <n v="54718"/>
+        <n v="27576"/>
+        <n v="26001"/>
+        <n v="17579"/>
+        <n v="23392"/>
+        <n v="15770"/>
+        <n v="64154"/>
+        <n v="21909"/>
+        <n v="55578"/>
+        <n v="64046"/>
+        <n v="46200"/>
+        <n v="64682"/>
+        <n v="20283"/>
+        <n v="51359"/>
+        <n v="28976"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="20">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="19"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9EA19C61-D023-384A-92F5-FFF410726A3C}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:F10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="21">
+        <item x="10"/>
+        <item x="8"/>
+        <item x="17"/>
+        <item x="12"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="19"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="16"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sales" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight14" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C21" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:C21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:C21" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:C21" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Department"/>
-    <tableColumn id="2" name="Quarter"/>
-    <tableColumn id="3" name="Sales"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Department"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Quarter"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sales"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -406,21 +696,202 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4AD836-7A65-0B44-90B6-8AE55E8E4B0B}">
+  <dimension ref="A3:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>51992</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45427</v>
+      </c>
+      <c r="D5" s="2">
+        <v>38092</v>
+      </c>
+      <c r="E5" s="2">
+        <v>33519</v>
+      </c>
+      <c r="F5" s="2">
+        <v>169030</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>70127</v>
+      </c>
+      <c r="C6" s="2">
+        <v>54718</v>
+      </c>
+      <c r="D6" s="2">
+        <v>27576</v>
+      </c>
+      <c r="E6" s="2">
+        <v>26001</v>
+      </c>
+      <c r="F6" s="2">
+        <v>178422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>17579</v>
+      </c>
+      <c r="C7" s="2">
+        <v>23392</v>
+      </c>
+      <c r="D7" s="2">
+        <v>15770</v>
+      </c>
+      <c r="E7" s="2">
+        <v>64154</v>
+      </c>
+      <c r="F7" s="2">
+        <v>120895</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>21909</v>
+      </c>
+      <c r="C8" s="2">
+        <v>55578</v>
+      </c>
+      <c r="D8" s="2">
+        <v>64046</v>
+      </c>
+      <c r="E8" s="2">
+        <v>46200</v>
+      </c>
+      <c r="F8" s="2">
+        <v>187733</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>64682</v>
+      </c>
+      <c r="C9" s="2">
+        <v>20283</v>
+      </c>
+      <c r="D9" s="2">
+        <v>51359</v>
+      </c>
+      <c r="E9" s="2">
+        <v>28976</v>
+      </c>
+      <c r="F9" s="2">
+        <v>165300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>226289</v>
+      </c>
+      <c r="C10" s="2">
+        <v>199398</v>
+      </c>
+      <c r="D10" s="2">
+        <v>196843</v>
+      </c>
+      <c r="E10" s="2">
+        <v>198850</v>
+      </c>
+      <c r="F10" s="2">
+        <v>821380</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -442,7 +913,7 @@
         <v>51992</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -453,7 +924,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -464,7 +935,7 @@
         <v>38092</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -475,7 +946,7 @@
         <v>33519</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -486,7 +957,7 @@
         <v>70127</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -497,7 +968,7 @@
         <v>54718</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -508,7 +979,7 @@
         <v>27576</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -519,7 +990,7 @@
         <v>26001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -530,7 +1001,7 @@
         <v>17579</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -541,7 +1012,7 @@
         <v>23392</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -552,7 +1023,7 @@
         <v>15770</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -563,7 +1034,7 @@
         <v>64154</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -574,7 +1045,7 @@
         <v>21909</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -585,7 +1056,7 @@
         <v>55578</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -596,7 +1067,7 @@
         <v>64046</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -607,7 +1078,7 @@
         <v>46200</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -618,7 +1089,7 @@
         <v>64682</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -629,7 +1100,7 @@
         <v>20283</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -640,7 +1111,7 @@
         <v>51359</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
